--- a/刷外部FLASH程序（如何恢复出厂内容）/外部存储器规划.xlsx
+++ b/刷外部FLASH程序（如何恢复出厂内容）/外部存储器规划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -131,9 +131,6 @@
     <t>FATFS文件系统（emWin使用）</t>
   </si>
   <si>
-    <t>512*4096</t>
-  </si>
-  <si>
     <t>1536*4096(6MB)</t>
   </si>
   <si>
@@ -257,6 +254,69 @@
       </rPr>
       <t>使用）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸机中文显示例程（4.5寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裸机中文字库（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸用）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HZLIB.bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770*4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512*4096</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFDABA32"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,47 +521,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,6 +578,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDABA32"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -804,287 +878,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="13"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>1024</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>4096</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E10:I10"/>
+  <mergeCells count="38">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A12:M13"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E11:I11"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -1094,25 +1201,22 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A11:M12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
